--- a/result/result_1.xlsx
+++ b/result/result_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/経済ファイル/02_分析/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{46D05B53-3761-4BAA-AE6C-085316D98E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E6C39FD-6E1A-4117-B87F-499AD77B9E40}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{46D05B53-3761-4BAA-AE6C-085316D98E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9934E36D-71A1-4E83-9060-E7492BDF552E}"/>
   <bookViews>
-    <workbookView xWindow="38040" yWindow="4800" windowWidth="19365" windowHeight="10275" xr2:uid="{C91B3B1A-F6D0-4288-9C77-B6CD9BEE17FD}"/>
+    <workbookView xWindow="36615" yWindow="1695" windowWidth="19365" windowHeight="10275" xr2:uid="{C91B3B1A-F6D0-4288-9C77-B6CD9BEE17FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6335E6C-611E-4EEE-B2B4-D778F2872D0B}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E52"/>
@@ -391,1043 +395,887 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E1">
         <v>0</v>
       </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>7.7143544806674E-2</v>
+        <v>1.9285886201668476E-2</v>
       </c>
       <c r="B2">
-        <v>-1.9363234852158039E-2</v>
+        <v>1.4806367651478418</v>
       </c>
       <c r="C2">
-        <v>5.3424567884960285E-2</v>
+        <v>1.5534245678849603</v>
       </c>
       <c r="D2">
-        <v>-1.7426911366942234E-3</v>
+        <v>1.4982573088633058</v>
       </c>
       <c r="E2">
-        <v>-1.0000000000000001E-5</v>
-      </c>
-      <c r="F2">
-        <v>-1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>-9.9999999999987218E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>0.23878178027030797</v>
+        <v>5.9695445067576937E-2</v>
       </c>
       <c r="B3">
-        <v>0.12827027103231764</v>
+        <v>1.6282702710323174</v>
       </c>
       <c r="C3">
-        <v>0.11570531721001102</v>
+        <v>1.6157053172100109</v>
       </c>
       <c r="D3">
-        <v>9.9584754585168439E-3</v>
+        <v>1.5099584754585169</v>
       </c>
       <c r="E3">
-        <v>-1.0000000000000001E-5</v>
-      </c>
-      <c r="F3">
-        <v>-1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>-1.0000000000000185E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>0.47966524298119972</v>
+        <v>0.11991631074529979</v>
       </c>
       <c r="B4">
-        <v>0.28659125821270509</v>
+        <v>1.7865912582127048</v>
       </c>
       <c r="C4">
-        <v>0.20194699217194712</v>
+        <v>1.701946992171947</v>
       </c>
       <c r="D4">
-        <v>3.4855425906393782E-2</v>
+        <v>1.5348554259063938</v>
       </c>
       <c r="E4">
-        <v>-1.0000000000000001E-5</v>
-      </c>
-      <c r="F4">
-        <v>-1.0000000000010001E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>-9.9999999999953354E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>0.78339170613319098</v>
+        <v>0.19584792653329758</v>
       </c>
       <c r="B5">
-        <v>0.42830600817726877</v>
+        <v>1.9283060081772685</v>
       </c>
       <c r="C5">
-        <v>0.27992657996422998</v>
+        <v>1.7799265799642296</v>
       </c>
       <c r="D5">
-        <v>7.0265978310772526E-2</v>
+        <v>1.5702659783107724</v>
       </c>
       <c r="E5">
-        <v>-1.0000000000003062E-5</v>
-      </c>
-      <c r="F5">
-        <v>0.102778048676721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>-1.0000000000023879E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>0.99691566724564984</v>
+        <v>0.24922891681141232</v>
       </c>
       <c r="B6">
-        <v>0.53260039400216685</v>
+        <v>2.0326003940021664</v>
       </c>
       <c r="C6">
-        <v>0.33986105691693252</v>
+        <v>1.8398610569169325</v>
       </c>
       <c r="D6">
-        <v>0.11187607572299801</v>
+        <v>1.611876075722998</v>
       </c>
       <c r="E6">
-        <v>0.19716236417923247</v>
-      </c>
-      <c r="F6">
-        <v>0.59716595654342397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.1971623641792318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>1.0484788219286738</v>
+        <v>0.26211970548216845</v>
       </c>
       <c r="B7">
-        <v>0.58860709265935729</v>
+        <v>2.0886070926593572</v>
       </c>
       <c r="C7">
-        <v>0.37957684862727903</v>
+        <v>1.8795768486272788</v>
       </c>
       <c r="D7">
-        <v>0.15478186724727036</v>
+        <v>1.6547818672472703</v>
       </c>
       <c r="E7">
-        <v>0.40137471509317985</v>
-      </c>
-      <c r="F7">
-        <v>0.91700334907799286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.40137471509317929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>0.97222440435549773</v>
+        <v>0.24305610108887446</v>
       </c>
       <c r="B8">
-        <v>0.60309366314774149</v>
+        <v>2.1030936631477415</v>
       </c>
       <c r="C8">
-        <v>0.40187199430966847</v>
+        <v>1.9018719943096682</v>
       </c>
       <c r="D8">
-        <v>0.19512992887831276</v>
+        <v>1.6951299288783126</v>
       </c>
       <c r="E8">
-        <v>0.50922333411087894</v>
-      </c>
-      <c r="F8">
-        <v>1.0577894335794433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.50922333411087861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>0.83295652219612437</v>
+        <v>0.20823913054903109</v>
       </c>
       <c r="B9">
-        <v>0.59179589666043975</v>
+        <v>2.0917958966604395</v>
       </c>
       <c r="C9">
-        <v>0.41263225656858132</v>
+        <v>1.9126322565685812</v>
       </c>
       <c r="D9">
-        <v>0.2308298659787042</v>
+        <v>1.730829865978704</v>
       </c>
       <c r="E9">
-        <v>0.53950369427815681</v>
-      </c>
-      <c r="F9">
-        <v>1.0726093998288837</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.53950369427815659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>0.68598273694584555</v>
+        <v>0.17149568423646144</v>
       </c>
       <c r="B10">
-        <v>0.57041868650101202</v>
+        <v>2.0704186865010117</v>
       </c>
       <c r="C10">
-        <v>0.41781698725180422</v>
+        <v>1.9178169872518041</v>
       </c>
       <c r="D10">
-        <v>0.26139285982571187</v>
+        <v>1.7613928598257118</v>
       </c>
       <c r="E10">
         <v>0.52526037052133534</v>
       </c>
-      <c r="F10">
-        <v>1.0264628474923185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>0.56293872087208263</v>
+        <v>0.14073468021802071</v>
       </c>
       <c r="B11">
-        <v>0.54977876554854743</v>
+        <v>2.0497787655485475</v>
       </c>
       <c r="C11">
-        <v>0.42166542897558568</v>
+        <v>1.9216654289755857</v>
       </c>
       <c r="D11">
-        <v>0.28734759134076704</v>
+        <v>1.787347591340767</v>
       </c>
       <c r="E11">
-        <v>0.49622061514005444</v>
-      </c>
-      <c r="F11">
-        <v>0.96949895476270709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49622061514005433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>0.4733591457628174</v>
+        <v>0.11833978644070443</v>
       </c>
       <c r="B12">
-        <v>0.53490713389192734</v>
+        <v>2.0349071338919273</v>
       </c>
       <c r="C12">
-        <v>0.42629887178463194</v>
+        <v>1.9262988717846319</v>
       </c>
       <c r="D12">
-        <v>0.30962795017037154</v>
+        <v>1.8096279501703716</v>
       </c>
       <c r="E12">
-        <v>0.47108822029039493</v>
-      </c>
-      <c r="F12">
-        <v>0.92871136399377729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.47108822029039504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>0.41283306928363761</v>
+        <v>0.10320826732090946</v>
       </c>
       <c r="B13">
-        <v>0.52645108308794064</v>
+        <v>2.0264510830879408</v>
       </c>
       <c r="C13">
-        <v>0.43218618922778562</v>
+        <v>1.9321861892277856</v>
       </c>
       <c r="D13">
-        <v>0.32914203213295273</v>
+        <v>1.8291420321329528</v>
       </c>
       <c r="E13">
-        <v>0.45731789088696634</v>
-      </c>
-      <c r="F13">
-        <v>0.91138076074868024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.45731789088696662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>0.37151055563436475</v>
+        <v>9.2877638908591215E-2</v>
       </c>
       <c r="B14">
-        <v>0.5227524675753672</v>
+        <v>2.0227524675753674</v>
       </c>
       <c r="C14">
-        <v>0.43889029553980452</v>
+        <v>1.9388902955398046</v>
       </c>
       <c r="D14">
-        <v>0.34656697132277009</v>
+        <v>1.8465669713227701</v>
       </c>
       <c r="E14">
-        <v>0.45461877491308644</v>
-      </c>
-      <c r="F14">
-        <v>0.91307945958802161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.45461877491308661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>0.33996555615745272</v>
+        <v>8.4991389039363166E-2</v>
       </c>
       <c r="B15">
-        <v>0.52158358258578275</v>
+        <v>2.0215835825857829</v>
       </c>
       <c r="C15">
-        <v>0.44571235615007326</v>
+        <v>1.9457123561500733</v>
       </c>
       <c r="D15">
-        <v>0.36231846633644121</v>
+        <v>1.8623184663364412</v>
       </c>
       <c r="E15">
-        <v>0.45912579270038117</v>
-      </c>
-      <c r="F15">
-        <v>0.92527500895674331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.4591257927003814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>0.31187684402921523</v>
+        <v>7.7969211007303779E-2</v>
       </c>
       <c r="B16">
-        <v>0.52115895305005377</v>
+        <v>2.0211589530500538</v>
       </c>
       <c r="C16">
-        <v>0.45208010126864501</v>
+        <v>1.9520801012686451</v>
       </c>
       <c r="D16">
-        <v>0.37661411014066637</v>
+        <v>1.8766141101406664</v>
       </c>
       <c r="E16">
-        <v>0.46654285225961561</v>
-      </c>
-      <c r="F16">
-        <v>0.94028003774110558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.46654285225961573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>0.28431477535350758</v>
+        <v>7.1078693838376866E-2</v>
       </c>
       <c r="B17">
-        <v>0.52047421062168142</v>
+        <v>2.0204742106216815</v>
       </c>
       <c r="C17">
-        <v>0.45768888379618455</v>
+        <v>1.9576888837961848</v>
       </c>
       <c r="D17">
-        <v>0.38956151918395776</v>
+        <v>1.8895615191839579</v>
       </c>
       <c r="E17">
-        <v>0.47377761906686516</v>
-      </c>
-      <c r="F17">
-        <v>0.95333172111085751</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.47377761906686527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>0.2567908929938062</v>
+        <v>6.4197723248451521E-2</v>
       </c>
       <c r="B18">
-        <v>0.51921446360791756</v>
+        <v>2.0192144636079177</v>
       </c>
       <c r="C18">
-        <v>0.46247953994771379</v>
+        <v>1.9624795399477137</v>
       </c>
       <c r="D18">
-        <v>0.40123028418211415</v>
+        <v>1.9012302841821143</v>
       </c>
       <c r="E18">
-        <v>0.47932727787175261</v>
-      </c>
-      <c r="F18">
-        <v>0.96262886777165224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.47932727787175283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>0.2300250373124654</v>
+        <v>5.7506259328116302E-2</v>
       </c>
       <c r="B19">
-        <v>0.51748737043989435</v>
+        <v>2.0174873704398943</v>
       </c>
       <c r="C19">
-        <v>0.46654599836826172</v>
+        <v>1.9665459983682618</v>
       </c>
       <c r="D19">
-        <v>0.41169342194531439</v>
+        <v>1.9116934219453143</v>
       </c>
       <c r="E19">
-        <v>0.48294426655169159</v>
-      </c>
-      <c r="F19">
-        <v>0.96838445572731668</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.48294426655169165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>0.20497713945013157</v>
+        <v>5.1244284862532831E-2</v>
       </c>
       <c r="B20">
-        <v>0.51555942529202314</v>
+        <v>2.015559425292023</v>
       </c>
       <c r="C20">
-        <v>0.47003968615943148</v>
+        <v>1.9700396861594314</v>
       </c>
       <c r="D20">
-        <v>0.42104136224651817</v>
+        <v>1.9210413622465181</v>
       </c>
       <c r="E20">
         <v>0.48506786587744816</v>
       </c>
-      <c r="F20">
-        <v>0.97171745893822625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>0.18231858888476862</v>
+        <v>4.5579647221192114E-2</v>
       </c>
       <c r="B21">
-        <v>0.51367942900397001</v>
+        <v>2.0136794290039699</v>
       </c>
       <c r="C21">
-        <v>0.4731036835013725</v>
+        <v>1.9731036835013724</v>
       </c>
       <c r="D21">
-        <v>0.42937878825468889</v>
+        <v>1.9293787882546889</v>
       </c>
       <c r="E21">
-        <v>0.48632916867348075</v>
-      </c>
-      <c r="F21">
-        <v>0.97382861037654944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.48632916867348058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>0.16228375644072532</v>
+        <v>4.0570939110181309E-2</v>
       </c>
       <c r="B22">
-        <v>0.51200081434262512</v>
+        <v>2.0120008143426249</v>
       </c>
       <c r="C22">
-        <v>0.4758426158822226</v>
+        <v>1.9758426158822224</v>
       </c>
       <c r="D22">
-        <v>0.43681477060260315</v>
+        <v>1.9368147706026031</v>
       </c>
       <c r="E22">
-        <v>0.48725205360978813</v>
-      </c>
-      <c r="F22">
-        <v>0.97557959354952006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.48725205360978807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>0.14474988940863803</v>
+        <v>3.6187472352159508E-2</v>
       </c>
       <c r="B23">
-        <v>0.51057622286487248</v>
+        <v>2.0105762228648727</v>
       </c>
       <c r="C23">
-        <v>0.47831951526579469</v>
+        <v>1.9783195152657946</v>
       </c>
       <c r="D23">
-        <v>0.44345330130620741</v>
+        <v>1.9434533013062074</v>
       </c>
       <c r="E23">
-        <v>0.48814482329163761</v>
-      </c>
-      <c r="F23">
-        <v>0.97740136342316519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.48814482329163755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>0.12939894163292026</v>
+        <v>3.2349735408230072E-2</v>
       </c>
       <c r="B24">
-        <v>0.50938821142418356</v>
+        <v>2.0093882114241834</v>
       </c>
       <c r="C24">
-        <v>0.48056664627644402</v>
+        <v>1.980566646276444</v>
       </c>
       <c r="D24">
-        <v>0.44938744321682528</v>
+        <v>1.9493874432168252</v>
       </c>
       <c r="E24">
         <v>0.48911798187786659</v>
       </c>
-      <c r="F24">
-        <v>0.97938921254348932</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>0.11586500113253641</v>
+        <v>2.8966250283134105E-2</v>
       </c>
       <c r="B25">
-        <v>0.50838705097352277</v>
+        <v>2.0083870509735227</v>
       </c>
       <c r="C25">
-        <v>0.48259960944596836</v>
+        <v>1.9825996094459684</v>
       </c>
       <c r="D25">
-        <v>0.45469740791492808</v>
+        <v>1.9546974079149282</v>
       </c>
       <c r="E25">
-        <v>0.49015633158994937</v>
-      </c>
-      <c r="F25">
-        <v>0.9814558963971155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49015633158994942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>0.10382623839500853</v>
+        <v>2.5956559598752128E-2</v>
       </c>
       <c r="B26">
-        <v>0.50751961848222582</v>
+        <v>2.0075196184822257</v>
       </c>
       <c r="C26">
-        <v>0.48442841344501414</v>
+        <v>1.9844284134450141</v>
       </c>
       <c r="D26">
-        <v>0.4594514068659849</v>
+        <v>1.959451406865985</v>
       </c>
       <c r="E26">
-        <v>0.49119358210980274</v>
-      </c>
-      <c r="F26">
-        <v>0.98346277658962344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49119358210980268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>9.3039820934198228E-2</v>
+        <v>2.3259955233549526E-2</v>
       </c>
       <c r="B27">
-        <v>0.50674436847026283</v>
+        <v>2.0067443684702626</v>
       </c>
       <c r="C27">
-        <v>0.48606370913969388</v>
+        <v>1.9860637091396938</v>
       </c>
       <c r="D27">
-        <v>0.46370777341036995</v>
+        <v>1.9637077734103698</v>
       </c>
       <c r="E27">
         <v>0.49216377361670816</v>
       </c>
-      <c r="F27">
-        <v>0.98529759447499088</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>8.3337847388869152E-2</v>
+        <v>2.0834461847217253E-2</v>
       </c>
       <c r="B28">
-        <v>0.50603500958212611</v>
+        <v>2.006035009582126</v>
       </c>
       <c r="C28">
-        <v>0.48751842291365899</v>
+        <v>1.9875184229136589</v>
       </c>
       <c r="D28">
-        <v>0.46751722466582801</v>
+        <v>1.9675172246658279</v>
       </c>
       <c r="E28">
-        <v>0.49302509407844769</v>
-      </c>
-      <c r="F28">
-        <v>0.9869018461957263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49302509407844752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>7.4605296908827681E-2</v>
+        <v>1.8651324227206906E-2</v>
       </c>
       <c r="B29">
-        <v>0.50537682561758512</v>
+        <v>2.005376825617585</v>
       </c>
       <c r="C29">
-        <v>0.4888071836551548</v>
+        <v>1.9888071836551546</v>
       </c>
       <c r="D29">
-        <v>0.47092458875148618</v>
+        <v>1.9709245887514861</v>
       </c>
       <c r="E29">
-        <v>0.49376231082606464</v>
-      </c>
-      <c r="F29">
-        <v>0.98826426065646322</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49376231082606437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>6.6756531250370621E-2</v>
+        <v>1.6689132812592662E-2</v>
       </c>
       <c r="B30">
-        <v>0.50476162142905034</v>
+        <v>2.0047616214290502</v>
       </c>
       <c r="C30">
-        <v>0.48994381315933916</v>
+        <v>1.989943813159339</v>
       </c>
       <c r="D30">
-        <v>0.47396992169246693</v>
+        <v>1.9739699216924669</v>
       </c>
       <c r="E30">
-        <v>0.49437877825543408</v>
-      </c>
-      <c r="F30">
-        <v>0.98940135579858846</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49437877825543391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>5.9717571903212391E-2</v>
+        <v>1.4929392975803129E-2</v>
       </c>
       <c r="B31">
-        <v>0.50418122471292226</v>
+        <v>2.004181224712922</v>
       </c>
       <c r="C31">
-        <v>0.49094042190226939</v>
+        <v>1.9909404219022693</v>
       </c>
       <c r="D31">
-        <v>0.47668893896430792</v>
+        <v>1.9766889389643079</v>
       </c>
       <c r="E31">
-        <v>0.49488445666519865</v>
-      </c>
-      <c r="F31">
-        <v>0.9903349122065126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49488445666519848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>5.3417949513834218E-2</v>
+        <v>1.335448737845862E-2</v>
       </c>
       <c r="B32">
-        <v>0.50362597271123022</v>
+        <v>2.0036259727112302</v>
       </c>
       <c r="C32">
-        <v>0.49180385797604853</v>
+        <v>1.9918038579760484</v>
       </c>
       <c r="D32">
-        <v>0.47911327200153092</v>
+        <v>1.979113272001531</v>
       </c>
       <c r="E32">
-        <v>0.49528802314849879</v>
-      </c>
-      <c r="F32">
-        <v>0.99107949577209919</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49528802314849862</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>4.7786790338611648E-2</v>
+        <v>1.1946697584653004E-2</v>
       </c>
       <c r="B33">
-        <v>0.50307807737834975</v>
+        <v>2.0030780773783499</v>
       </c>
       <c r="C33">
-        <v>0.49253808712795627</v>
+        <v>1.9925380871279563</v>
       </c>
       <c r="D33">
-        <v>0.48127010448544466</v>
+        <v>1.9812701044854446</v>
       </c>
       <c r="E33">
-        <v>0.4955881972734375</v>
-      </c>
-      <c r="F33">
-        <v>0.99162821594796069</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49558819727343745</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>4.275683659528344E-2</v>
+        <v>1.0689209148820931E-2</v>
       </c>
       <c r="B34">
-        <v>0.5025176177877746</v>
+        <v>2.0025176177877748</v>
       </c>
       <c r="C34">
-        <v>0.49313605100067176</v>
+        <v>1.9931360510006719</v>
       </c>
       <c r="D34">
-        <v>0.48318238068265434</v>
+        <v>1.9831823806826543</v>
       </c>
       <c r="E34">
-        <v>0.49577528124327902</v>
-      </c>
-      <c r="F34">
-        <v>0.99195781881182399</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49577528124327924</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>3.8261517412016374E-2</v>
+        <v>9.5653793530041283E-3</v>
       </c>
       <c r="B35">
-        <v>0.50190576014280697</v>
+        <v>2.0019057601428067</v>
       </c>
       <c r="C35">
-        <v>0.49359051692340111</v>
+        <v>1.9935905169234012</v>
       </c>
       <c r="D35">
-        <v>0.48486748483406805</v>
+        <v>1.9848674848340682</v>
       </c>
       <c r="E35">
-        <v>0.49581950864066882</v>
-      </c>
-      <c r="F35">
-        <v>0.9920061979567939</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49581950864066893</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>3.4246509058182661E-2</v>
+        <v>8.5616272645456792E-3</v>
       </c>
       <c r="B36">
-        <v>0.50120843272341986</v>
+        <v>2.0012084327234199</v>
       </c>
       <c r="C36">
-        <v>0.49386766114625308</v>
+        <v>1.9938676611462531</v>
       </c>
       <c r="D36">
-        <v>0.48633817014410974</v>
+        <v>1.9863381701441098</v>
       </c>
       <c r="E36">
-        <v>0.49568498595188398</v>
-      </c>
-      <c r="F36">
-        <v>0.99170029182215957</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49568498595188404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>3.0652507442822215E-2</v>
+        <v>7.6631268607055348E-3</v>
       </c>
       <c r="B37">
-        <v>0.50034031800543444</v>
+        <v>2.0003403180054344</v>
       </c>
       <c r="C37">
-        <v>0.49394657363913635</v>
+        <v>1.9939465736391364</v>
       </c>
       <c r="D37">
-        <v>0.48759836345162894</v>
+        <v>1.987598363451629</v>
       </c>
       <c r="E37">
-        <v>0.49529230086848974</v>
-      </c>
-      <c r="F37">
-        <v>0.9908808541658205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49529230086849002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>2.7448815035858748E-2</v>
+        <v>6.8622037589646358E-3</v>
       </c>
       <c r="B38">
-        <v>0.49925020881909205</v>
+        <v>1.999250208819092</v>
       </c>
       <c r="C38">
-        <v>0.49373094611475254</v>
+        <v>1.9937309461147525</v>
       </c>
       <c r="D38">
-        <v>0.48864702953470063</v>
+        <v>1.9886470295347007</v>
       </c>
       <c r="E38">
-        <v>0.49456871968430938</v>
-      </c>
-      <c r="F38">
-        <v>0.98940246182464842</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49456871968430949</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>2.4570196450577314E-2</v>
+        <v>6.1425491126442452E-3</v>
       </c>
       <c r="B39">
-        <v>0.49773351226328033</v>
+        <v>1.9977335122632804</v>
       </c>
       <c r="C39">
-        <v>0.49319112482954663</v>
+        <v>1.9931911248295466</v>
       </c>
       <c r="D39">
-        <v>0.48946481298027283</v>
+        <v>1.989464812980273</v>
       </c>
       <c r="E39">
-        <v>0.49332346714713787</v>
-      </c>
-      <c r="F39">
-        <v>0.98688358723697467</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49332346714713804</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>2.2032628609929668E-2</v>
+        <v>5.5081571524823146E-3</v>
       </c>
       <c r="B40">
-        <v>0.49573855030825953</v>
+        <v>1.9957385503082594</v>
       </c>
       <c r="C40">
-        <v>0.49206684061779854</v>
+        <v>1.9920668406177986</v>
       </c>
       <c r="D40">
-        <v>0.49002944933979165</v>
+        <v>1.9900294493397919</v>
       </c>
       <c r="E40">
         <v>0.49143175496658142</v>
       </c>
-      <c r="F40">
-        <v>0.98307474599408307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>1.971613764824471E-2</v>
+        <v>4.9290344120610707E-3</v>
       </c>
       <c r="B41">
-        <v>0.492734255345398</v>
+        <v>1.9927342553453979</v>
       </c>
       <c r="C41">
-        <v>0.49037187463949633</v>
+        <v>1.9903718746394963</v>
       </c>
       <c r="D41">
-        <v>0.49027288188029616</v>
+        <v>1.9902728818802964</v>
       </c>
       <c r="E41">
-        <v>0.48842097836864096</v>
-      </c>
-      <c r="F41">
-        <v>0.97703035137039662</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.4884209783686409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>1.7767692688689399E-2</v>
+        <v>4.4419231721722283E-3</v>
       </c>
       <c r="B42">
-        <v>0.48879550013075079</v>
+        <v>1.9887955001307507</v>
       </c>
       <c r="C42">
-        <v>0.4873841238827295</v>
+        <v>1.9873841238827294</v>
       </c>
       <c r="D42">
-        <v>0.49013991752283714</v>
+        <v>1.9901399175228374</v>
       </c>
       <c r="E42">
         <v>0.48413591675535073</v>
       </c>
-      <c r="F42">
-        <v>0.96844007391228515</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>1.5851424996907282E-2</v>
+        <v>3.9628562492267172E-3</v>
       </c>
       <c r="B43">
-        <v>0.48245063934168397</v>
+        <v>1.9824506393416836</v>
       </c>
       <c r="C43">
-        <v>0.48342087535834921</v>
+        <v>1.9834208753583491</v>
       </c>
       <c r="D43">
-        <v>0.48944788248653331</v>
+        <v>1.9894478824865334</v>
       </c>
       <c r="E43">
-        <v>0.47734806029275623</v>
-      </c>
-      <c r="F43">
-        <v>0.95484583020921898</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.47734806029275606</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>1.4544727232939468E-2</v>
+        <v>3.6361818082347834E-3</v>
       </c>
       <c r="B44">
-        <v>0.47449194740116851</v>
+        <v>1.9744919474011684</v>
       </c>
       <c r="C44">
-        <v>0.47638381855302059</v>
+        <v>1.9763838185530207</v>
       </c>
       <c r="D44">
-        <v>0.48810184832885051</v>
+        <v>1.9881018483288506</v>
       </c>
       <c r="E44">
-        <v>0.46811965905653596</v>
-      </c>
-      <c r="F44">
-        <v>0.93637312647587112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.46811965905653585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>1.2743090985000373E-2</v>
+        <v>3.1857727462500304E-3</v>
       </c>
       <c r="B45">
-        <v>0.46060159806447976</v>
+        <v>1.9606015980644798</v>
       </c>
       <c r="C45">
-        <v>0.46796519911976087</v>
+        <v>1.9679651991197609</v>
       </c>
       <c r="D45">
-        <v>0.48562682580505717</v>
+        <v>1.9856268258050573</v>
       </c>
       <c r="E45">
-        <v>0.45307857556185954</v>
-      </c>
-      <c r="F45">
-        <v>0.90627482848657892</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.45307857556185949</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>1.2492832726867756E-2</v>
+        <v>3.1232081817168856E-3</v>
       </c>
       <c r="B46">
-        <v>0.44465607625217002</v>
+        <v>1.9446560762521701</v>
       </c>
       <c r="C46">
-        <v>0.45177545164089483</v>
+        <v>1.9517754516408949</v>
       </c>
       <c r="D46">
-        <v>0.48193945834529733</v>
+        <v>1.9819394583452974</v>
       </c>
       <c r="E46">
         <v>0.43373238413940346</v>
       </c>
-      <c r="F46">
-        <v>0.86757043607300344</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>1.0005709190207593E-2</v>
+        <v>2.5014272975518552E-3</v>
       </c>
       <c r="B47">
-        <v>0.41336370454917315</v>
+        <v>1.9133637045491731</v>
       </c>
       <c r="C47">
-        <v>0.43495736850785482</v>
+        <v>1.9349573685078547</v>
       </c>
       <c r="D47">
-        <v>0.47576764050364623</v>
+        <v>1.9757676405036462</v>
       </c>
       <c r="E47">
-        <v>0.40030052964597373</v>
-      </c>
-      <c r="F47">
-        <v>0.80068976067403086</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.40030052964597368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>1.2386904314742219E-2</v>
+        <v>3.0967260786855305E-3</v>
       </c>
       <c r="B48">
-        <v>0.38256471038977891</v>
+        <v>1.8825647103897789</v>
       </c>
       <c r="C48">
-        <v>0.39727466902082814</v>
+        <v>1.897274669020828</v>
       </c>
       <c r="D48">
-        <v>0.46737937679339819</v>
+        <v>1.967379376793398</v>
       </c>
       <c r="E48">
-        <v>0.36077448618007774</v>
-      </c>
-      <c r="F48">
-        <v>0.72163156344489432</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.36077448618007762</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>6.525195425044982E-3</v>
+        <v>1.6312988562612444E-3</v>
       </c>
       <c r="B49">
-        <v>0.30978353224518973</v>
+        <v>1.8097835322451896</v>
       </c>
       <c r="C49">
-        <v>0.36621419619633533</v>
+        <v>1.8662141961963352</v>
       </c>
       <c r="D49">
-        <v>0.45319575078405944</v>
+        <v>1.9531957507840594</v>
       </c>
       <c r="E49">
-        <v>0.28535322323071788</v>
-      </c>
-      <c r="F49">
-        <v>0.57076306670432564</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.28535322323071782</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>1.6997578160828346E-2</v>
+        <v>4.2493945402071135E-3</v>
       </c>
       <c r="B50">
-        <v>0.25503128402864428</v>
+        <v>1.7550312840286444</v>
       </c>
       <c r="C50">
-        <v>0.27576078936935072</v>
+        <v>1.7757607893693508</v>
       </c>
       <c r="D50">
-        <v>0.43536094877607212</v>
+        <v>1.9353609487760721</v>
       </c>
       <c r="E50">
-        <v>0.20764028193379439</v>
-      </c>
-      <c r="F50">
-        <v>0.41534683225919533</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.20764028193379427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>-1.6371577718383833E-3</v>
+        <v>-4.0928944295955382E-4</v>
       </c>
       <c r="B51">
-        <v>7.8830495960822353E-2</v>
+        <v>1.5788304959608224</v>
       </c>
       <c r="C51">
-        <v>0.22698366389872388</v>
+        <v>1.7269836638987239</v>
       </c>
       <c r="D51">
-        <v>0.40327320802269967</v>
+        <v>1.9032732080226997</v>
       </c>
       <c r="E51">
-        <v>3.315647104115934E-2</v>
-      </c>
-      <c r="F51">
-        <v>6.6318987804443744E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>3.3156471041159312E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>0</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
         <v>0</v>
       </c>
     </row>

--- a/result/result_1.xlsx
+++ b/result/result_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/経済ファイル/02_分析/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{46D05B53-3761-4BAA-AE6C-085316D98E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9934E36D-71A1-4E83-9060-E7492BDF552E}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{46D05B53-3761-4BAA-AE6C-085316D98E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AEDA435-AFC2-445E-B938-BA178A2266EA}"/>
   <bookViews>
-    <workbookView xWindow="36615" yWindow="1695" windowWidth="19365" windowHeight="10275" xr2:uid="{C91B3B1A-F6D0-4288-9C77-B6CD9BEE17FD}"/>
+    <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{C91B3B1A-F6D0-4288-9C77-B6CD9BEE17FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,852 +414,852 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>1.9285886201668476E-2</v>
+        <v>3.3488205426709321E-2</v>
       </c>
       <c r="B2">
-        <v>1.4806367651478418</v>
+        <v>1.6573876655055337</v>
       </c>
       <c r="C2">
-        <v>1.5534245678849603</v>
+        <v>1.6200488214049564</v>
       </c>
       <c r="D2">
-        <v>1.4982573088633058</v>
+        <v>1.514164889895498</v>
       </c>
       <c r="E2">
-        <v>-9.9999999999987218E-6</v>
+        <v>-9.9999999999964517E-6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>5.9695445067576937E-2</v>
+        <v>9.0769099612936457E-2</v>
       </c>
       <c r="B3">
-        <v>1.6282702710323174</v>
+        <v>1.7882324643576384</v>
       </c>
       <c r="C3">
-        <v>1.6157053172100109</v>
+        <v>1.700919232560256</v>
       </c>
       <c r="D3">
-        <v>1.5099584754585169</v>
+        <v>1.5388309715970907</v>
       </c>
       <c r="E3">
-        <v>-1.0000000000000185E-5</v>
+        <v>-9.9999999999969363E-6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>0.11991631074529979</v>
+        <v>0.16516032460820018</v>
       </c>
       <c r="B4">
-        <v>1.7865912582127048</v>
+        <v>1.910973836650006</v>
       </c>
       <c r="C4">
-        <v>1.701946992171947</v>
+        <v>1.7733501337212731</v>
       </c>
       <c r="D4">
-        <v>1.5348554259063938</v>
+        <v>1.5723238294518531</v>
       </c>
       <c r="E4">
-        <v>-9.9999999999953354E-6</v>
+        <v>-9.9999999999961231E-6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>0.19584792653329758</v>
+        <v>0.22635885034944389</v>
       </c>
       <c r="B5">
-        <v>1.9283060081772685</v>
+        <v>2.0120817236021336</v>
       </c>
       <c r="C5">
-        <v>1.7799265799642296</v>
+        <v>1.832075349157313</v>
       </c>
       <c r="D5">
-        <v>1.5702659783107724</v>
+        <v>1.6119020399253783</v>
       </c>
       <c r="E5">
-        <v>-1.0000000000023879E-5</v>
+        <v>0.14648745553971695</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>0.24922891681141232</v>
+        <v>0.24992084702376424</v>
       </c>
       <c r="B6">
-        <v>2.0326003940021664</v>
+        <v>2.074014150281954</v>
       </c>
       <c r="C6">
-        <v>1.8398610569169325</v>
+        <v>1.8737954754274537</v>
       </c>
       <c r="D6">
-        <v>1.611876075722998</v>
+        <v>1.6534921298574701</v>
       </c>
       <c r="E6">
-        <v>0.1971623641792318</v>
+        <v>0.35642061867104624</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>0.26211970548216845</v>
+        <v>0.23978613835948714</v>
       </c>
       <c r="B7">
-        <v>2.0886070926593572</v>
+        <v>2.0965754683781084</v>
       </c>
       <c r="C7">
-        <v>1.8795768486272788</v>
+        <v>1.8990045530898327</v>
       </c>
       <c r="D7">
-        <v>1.6547818672472703</v>
+        <v>1.6933696303243275</v>
       </c>
       <c r="E7">
-        <v>0.40137471509317929</v>
+        <v>0.48164652485099568</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>0.24305610108887446</v>
+        <v>0.21030707432105028</v>
       </c>
       <c r="B8">
-        <v>2.1030936631477415</v>
+        <v>2.0915092251004235</v>
       </c>
       <c r="C8">
-        <v>1.9018719943096682</v>
+        <v>1.9121026729121597</v>
       </c>
       <c r="D8">
-        <v>1.6951299288783126</v>
+        <v>1.7292021938541762</v>
       </c>
       <c r="E8">
-        <v>0.50922333411087861</v>
+        <v>0.52915482804008873</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>0.20823913054903109</v>
+        <v>0.17550581645697874</v>
       </c>
       <c r="B9">
-        <v>2.0917958966604395</v>
+        <v>2.0733268137091172</v>
       </c>
       <c r="C9">
-        <v>1.9126322565685812</v>
+        <v>1.918549084468727</v>
       </c>
       <c r="D9">
-        <v>1.730829865978704</v>
+        <v>1.760173409641121</v>
       </c>
       <c r="E9">
-        <v>0.53950369427815659</v>
+        <v>0.52645840883100115</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>0.17149568423646144</v>
+        <v>0.14445152085888557</v>
       </c>
       <c r="B10">
-        <v>2.0704186865010117</v>
+        <v>2.0533338527440046</v>
       </c>
       <c r="C10">
-        <v>1.9178169872518041</v>
+        <v>1.9227184010319971</v>
       </c>
       <c r="D10">
-        <v>1.7613928598257118</v>
+        <v>1.7865578495203804</v>
       </c>
       <c r="E10">
-        <v>0.52526037052133534</v>
+        <v>0.50250334972984656</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>0.14073468021802071</v>
+        <v>0.12079314247462751</v>
       </c>
       <c r="B11">
-        <v>2.0497787655485475</v>
+        <v>2.0376571570136939</v>
       </c>
       <c r="C11">
-        <v>1.9216654289755857</v>
+        <v>1.9271154910336268</v>
       </c>
       <c r="D11">
-        <v>1.787347591340767</v>
+        <v>1.8091567871947787</v>
       </c>
       <c r="E11">
-        <v>0.49622061514005433</v>
+        <v>0.47772419226448648</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>0.11833978644070443</v>
+        <v>0.10434109574713313</v>
       </c>
       <c r="B12">
-        <v>2.0349071338919273</v>
+        <v>2.0279533862063412</v>
       </c>
       <c r="C12">
-        <v>1.9262988717846319</v>
+        <v>1.9325789896771899</v>
       </c>
       <c r="D12">
-        <v>1.8096279501703716</v>
+        <v>1.8288484811058192</v>
       </c>
       <c r="E12">
-        <v>0.47108822029039504</v>
+        <v>0.46193950463197841</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>0.10320826732090946</v>
+        <v>9.3085048777225204E-2</v>
       </c>
       <c r="B13">
-        <v>2.0264510830879408</v>
+        <v>2.023195555525088</v>
       </c>
       <c r="C13">
-        <v>1.9321861892277856</v>
+        <v>1.9389110926285533</v>
       </c>
       <c r="D13">
-        <v>1.8291420321329528</v>
+        <v>1.8463397178035534</v>
       </c>
       <c r="E13">
-        <v>0.45731789088696662</v>
+        <v>0.45675491150406788</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>9.2877638908591215E-2</v>
+        <v>8.4755400293326275E-2</v>
       </c>
       <c r="B14">
-        <v>2.0227524675753674</v>
+        <v>2.0213980027328438</v>
       </c>
       <c r="C14">
-        <v>1.9388902955398046</v>
+        <v>1.9455106934577913</v>
       </c>
       <c r="D14">
-        <v>1.8465669713227701</v>
+        <v>1.8620949634471895</v>
       </c>
       <c r="E14">
-        <v>0.45461877491308661</v>
+        <v>0.45936221004051464</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>8.4991389039363166E-2</v>
+        <v>7.765697948701196E-2</v>
       </c>
       <c r="B15">
-        <v>2.0215835825857829</v>
+        <v>2.0207517225958886</v>
       </c>
       <c r="C15">
-        <v>1.9457123561500733</v>
+        <v>1.9518034150084116</v>
       </c>
       <c r="D15">
-        <v>1.8623184663364412</v>
+        <v>1.8763740717705726</v>
       </c>
       <c r="E15">
-        <v>0.4591257927003814</v>
+        <v>0.46577836472872614</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>7.7969211007303779E-2</v>
+        <v>7.0883866381532878E-2</v>
       </c>
       <c r="B16">
-        <v>2.0211589530500538</v>
+        <v>2.0201093588094317</v>
       </c>
       <c r="C16">
-        <v>1.9520801012686451</v>
+        <v>1.9574354104869285</v>
       </c>
       <c r="D16">
-        <v>1.8766141101406664</v>
+        <v>1.88931024760407</v>
       </c>
       <c r="E16">
-        <v>0.46654285225961573</v>
+        <v>0.47276784843905889</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>7.1078693838376866E-2</v>
+        <v>6.4168919136775512E-2</v>
       </c>
       <c r="B17">
-        <v>2.0204742106216815</v>
+        <v>2.0190023817166916</v>
       </c>
       <c r="C17">
-        <v>1.9576888837961848</v>
+        <v>1.9622918255522432</v>
       </c>
       <c r="D17">
-        <v>1.8895615191839579</v>
+        <v>1.9009825396742059</v>
       </c>
       <c r="E17">
-        <v>0.47377761906686527</v>
+        <v>0.47851381104397489</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>6.4197723248451521E-2</v>
+        <v>5.7607755483568272E-2</v>
       </c>
       <c r="B18">
-        <v>2.0192144636079177</v>
+        <v>2.017429602387669</v>
       </c>
       <c r="C18">
-        <v>1.9624795399477137</v>
+        <v>1.9664259214045989</v>
       </c>
       <c r="D18">
-        <v>1.9012302841821143</v>
+        <v>1.9114627753184177</v>
       </c>
       <c r="E18">
-        <v>0.47932727787175283</v>
+        <v>0.48247536774889072</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>5.7506259328116302E-2</v>
+        <v>5.1412300290928678E-2</v>
       </c>
       <c r="B19">
-        <v>2.0174873704398943</v>
+        <v>2.0156053618207128</v>
       </c>
       <c r="C19">
-        <v>1.9665459983682618</v>
+        <v>1.9699688709923135</v>
       </c>
       <c r="D19">
-        <v>1.9116934219453143</v>
+        <v>1.9208356081036242</v>
       </c>
       <c r="E19">
-        <v>0.48294426655169165</v>
+        <v>0.48490373264472236</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>5.1244284862532831E-2</v>
+        <v>4.5758230688951816E-2</v>
       </c>
       <c r="B20">
-        <v>2.015559425292023</v>
+        <v>2.0137702701887856</v>
       </c>
       <c r="C20">
-        <v>1.9700396861594314</v>
+        <v>1.9730598506052397</v>
       </c>
       <c r="D20">
-        <v>1.9210413622465181</v>
+        <v>1.9291997276912887</v>
       </c>
       <c r="E20">
-        <v>0.48506786587744816</v>
+        <v>0.48635325968919124</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>4.5579647221192114E-2</v>
+        <v>4.0726473588489118E-2</v>
       </c>
       <c r="B21">
-        <v>2.0136794290039699</v>
+        <v>2.0120931817988272</v>
       </c>
       <c r="C21">
-        <v>1.9731036835013724</v>
+        <v>1.9758086939689155</v>
       </c>
       <c r="D21">
-        <v>1.9293787882546889</v>
+        <v>1.9366601385609672</v>
       </c>
       <c r="E21">
-        <v>0.48632916867348058</v>
+        <v>0.48734911982212709</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>4.0570939110181309E-2</v>
+        <v>3.6308281639759334E-2</v>
       </c>
       <c r="B22">
-        <v>2.0120008143426249</v>
+        <v>2.0106484309397934</v>
       </c>
       <c r="C22">
-        <v>1.9758426158822224</v>
+        <v>1.9782863374358695</v>
       </c>
       <c r="D22">
-        <v>1.9368147706026031</v>
+        <v>1.9433190848750617</v>
       </c>
       <c r="E22">
-        <v>0.48725205360978807</v>
+        <v>0.48823772933549975</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>3.6187472352159508E-2</v>
+        <v>3.243872265461261E-2</v>
       </c>
       <c r="B23">
-        <v>2.0105762228648727</v>
+        <v>2.0094362307319713</v>
       </c>
       <c r="C23">
-        <v>1.9783195152657946</v>
+        <v>1.980531749078104</v>
       </c>
       <c r="D23">
-        <v>1.9434533013062074</v>
+        <v>1.9492696280021835</v>
       </c>
       <c r="E23">
-        <v>0.48814482329163755</v>
+        <v>0.48917292536110113</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>3.2349735408230072E-2</v>
+        <v>2.9032618640441179E-2</v>
       </c>
       <c r="B24">
-        <v>2.0093882114241834</v>
+        <v>2.0084169535265208</v>
       </c>
       <c r="C24">
-        <v>1.980566646276444</v>
+        <v>1.9825645397884815</v>
       </c>
       <c r="D24">
-        <v>1.9493874432168252</v>
+        <v>1.9545928872993739</v>
       </c>
       <c r="E24">
-        <v>0.48911798187786659</v>
+        <v>0.49017137192825599</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>2.8966250283134105E-2</v>
+        <v>2.6009782320742074E-2</v>
       </c>
       <c r="B25">
-        <v>2.0083870509735227</v>
+        <v>2.0075407477544758</v>
       </c>
       <c r="C25">
-        <v>1.9825996094459684</v>
+        <v>1.9843963124071922</v>
       </c>
       <c r="D25">
-        <v>1.9546974079149282</v>
+        <v>1.9593581947403331</v>
       </c>
       <c r="E25">
-        <v>0.49015633158994942</v>
+        <v>0.49118293094921134</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>2.5956559598752128E-2</v>
+        <v>2.3306797004093393E-2</v>
       </c>
       <c r="B26">
-        <v>2.0075196184822257</v>
+        <v>2.0067653126865199</v>
       </c>
       <c r="C26">
-        <v>1.9844284134450141</v>
+        <v>1.986037701538607</v>
       </c>
       <c r="D26">
-        <v>1.959451406865985</v>
+        <v>1.9636248353554899</v>
       </c>
       <c r="E26">
-        <v>0.49119358210980268</v>
+        <v>0.49214535175199831</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>2.3259955233549526E-2</v>
+        <v>2.0878395202665316E-2</v>
       </c>
       <c r="B27">
-        <v>2.0067443684702626</v>
+        <v>2.0060619734825962</v>
       </c>
       <c r="C27">
-        <v>1.9860637091396938</v>
+        <v>1.9875012674787538</v>
       </c>
       <c r="D27">
-        <v>1.9637077734103698</v>
+        <v>1.9674441777869294</v>
       </c>
       <c r="E27">
-        <v>0.49216377361670816</v>
+        <v>0.49301357682048474</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>2.0834461847217253E-2</v>
+        <v>1.8693334352696257E-2</v>
       </c>
       <c r="B28">
-        <v>2.006035009582126</v>
+        <v>2.0054144164445882</v>
       </c>
       <c r="C28">
-        <v>1.9875184229136589</v>
+        <v>1.9888011959946121</v>
       </c>
       <c r="D28">
-        <v>1.9675172246658279</v>
+        <v>1.9708614992661189</v>
       </c>
       <c r="E28">
-        <v>0.49302509407844752</v>
+        <v>0.49376758108430108</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>1.8651324227206906E-2</v>
+        <v>1.6728821100437885E-2</v>
       </c>
       <c r="B29">
-        <v>2.005376825617585</v>
+        <v>2.0048135627889287</v>
       </c>
       <c r="C29">
-        <v>1.9888071836551546</v>
+        <v>1.9899520832282225</v>
       </c>
       <c r="D29">
-        <v>1.9709245887514861</v>
+        <v>1.9739171849831716</v>
       </c>
       <c r="E29">
-        <v>0.49376231082606437</v>
+        <v>0.49440694041077454</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>1.6689132812592662E-2</v>
+        <v>1.4966056864819664E-2</v>
       </c>
       <c r="B30">
-        <v>2.0047616214290502</v>
+        <v>2.0042532072741222</v>
       </c>
       <c r="C30">
-        <v>1.989943813159339</v>
+        <v>1.990966599818639</v>
       </c>
       <c r="D30">
-        <v>1.9739699216924669</v>
+        <v>1.9766474269893572</v>
       </c>
       <c r="E30">
-        <v>0.49437877825543391</v>
+        <v>0.49494139575592377</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>1.4929392975803129E-2</v>
+        <v>1.3387482472846978E-2</v>
       </c>
       <c r="B31">
-        <v>2.004181224712922</v>
+        <v>2.0037250077073105</v>
       </c>
       <c r="C31">
-        <v>1.9909404219022693</v>
+        <v>1.9918550883554424</v>
       </c>
       <c r="D31">
-        <v>1.9766889389643079</v>
+        <v>1.979084409253973</v>
       </c>
       <c r="E31">
-        <v>0.49488445666519848</v>
+        <v>0.49538095114814523</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>1.335448737845862E-2</v>
+        <v>1.1976002735080865E-2</v>
       </c>
       <c r="B32">
-        <v>2.0036259727112302</v>
+        <v>2.0032183617393464</v>
       </c>
       <c r="C32">
-        <v>1.9918038579760484</v>
+        <v>1.9926224974891862</v>
       </c>
       <c r="D32">
-        <v>1.979113272001531</v>
+        <v>1.9812564649776565</v>
       </c>
       <c r="E32">
-        <v>0.49528802314849862</v>
+        <v>0.4957310657626196</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>1.1946697584653004E-2</v>
+        <v>1.0714670833336293E-2</v>
       </c>
       <c r="B33">
-        <v>2.0030780773783499</v>
+        <v>2.0027146576746513</v>
       </c>
       <c r="C33">
-        <v>1.9925380871279563</v>
+        <v>1.9932710837948331</v>
       </c>
       <c r="D33">
-        <v>1.9812701044854446</v>
+        <v>1.9831877023203861</v>
       </c>
       <c r="E33">
-        <v>0.49558819727343745</v>
+        <v>0.49598652823022837</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>1.0689209148820931E-2</v>
+        <v>9.587864139436162E-3</v>
       </c>
       <c r="B34">
-        <v>2.0025176177877748</v>
+        <v>2.0021936421755511</v>
       </c>
       <c r="C34">
-        <v>1.9931360510006719</v>
+        <v>1.9937923911141822</v>
       </c>
       <c r="D34">
-        <v>1.9831823806826543</v>
+        <v>1.9848982369073511</v>
       </c>
       <c r="E34">
-        <v>0.49577528124327924</v>
+        <v>0.49613447047209647</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>9.5653793530041283E-3</v>
+        <v>8.5804369511346366E-3</v>
       </c>
       <c r="B35">
-        <v>2.0019057601428067</v>
+        <v>2.0016166230662598</v>
       </c>
       <c r="C35">
-        <v>1.9935905169234012</v>
+        <v>1.9941781077946739</v>
       </c>
       <c r="D35">
-        <v>1.9848674848340682</v>
+        <v>1.986402891661653</v>
       </c>
       <c r="E35">
-        <v>0.49581950864066893</v>
+        <v>0.49614317803160873</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>8.5616272645456792E-3</v>
+        <v>7.6804077896918625E-3</v>
       </c>
       <c r="B36">
-        <v>2.0012084327234199</v>
+        <v>2.0009500018463493</v>
       </c>
       <c r="C36">
-        <v>1.9938676611462531</v>
+        <v>1.9943935497089904</v>
       </c>
       <c r="D36">
-        <v>1.9863381701441098</v>
+        <v>1.9877121315782755</v>
       </c>
       <c r="E36">
-        <v>0.49568498595188404</v>
+        <v>0.49597589324635877</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>7.6631268607055348E-3</v>
+        <v>6.874470260309273E-3</v>
       </c>
       <c r="B37">
-        <v>2.0003403180054344</v>
+        <v>2.0001090101169865</v>
       </c>
       <c r="C37">
-        <v>1.9939465736391364</v>
+        <v>1.9944171309182339</v>
       </c>
       <c r="D37">
-        <v>1.987598363451629</v>
+        <v>1.9888278506467596</v>
       </c>
       <c r="E37">
-        <v>0.49529230086849002</v>
+        <v>0.4955529783278661</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>6.8622037589646358E-3</v>
+        <v>6.156298317122339E-3</v>
       </c>
       <c r="B38">
-        <v>1.999250208819092</v>
+        <v>1.9990430290566601</v>
       </c>
       <c r="C38">
-        <v>1.9937309461147525</v>
+        <v>1.9941518930418045</v>
       </c>
       <c r="D38">
-        <v>1.9886470295347007</v>
+        <v>1.9897472167036507</v>
       </c>
       <c r="E38">
-        <v>0.49456871968430949</v>
+        <v>0.49480178344934</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>6.1425491126442452E-3</v>
+        <v>5.5107146399101031E-3</v>
       </c>
       <c r="B39">
-        <v>1.9977335122632804</v>
+        <v>1.9975478229745172</v>
       </c>
       <c r="C39">
-        <v>1.9931911248295466</v>
+        <v>1.9935676940040663</v>
       </c>
       <c r="D39">
-        <v>1.989464812980273</v>
+        <v>1.9904492712680286</v>
       </c>
       <c r="E39">
-        <v>0.49332346714713804</v>
+        <v>0.49353153600036698</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>5.5081571524823146E-3</v>
+        <v>4.9426817262087216E-3</v>
       </c>
       <c r="B40">
-        <v>1.9957385503082594</v>
+        <v>1.9955721997707918</v>
       </c>
       <c r="C40">
-        <v>1.9920668406177986</v>
+        <v>1.9924035996646419</v>
       </c>
       <c r="D40">
-        <v>1.9900294493397919</v>
+        <v>1.9909103348332773</v>
       </c>
       <c r="E40">
-        <v>0.49143175496658142</v>
+        <v>0.49161748716734954</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>4.9290344120610707E-3</v>
+        <v>4.4229891754760204E-3</v>
       </c>
       <c r="B41">
-        <v>1.9927342553453979</v>
+        <v>1.9925850351111016</v>
       </c>
       <c r="C41">
-        <v>1.9903718746394963</v>
+        <v>1.990673149104369</v>
       </c>
       <c r="D41">
-        <v>1.9902728818802964</v>
+        <v>1.9910610578582815</v>
       </c>
       <c r="E41">
-        <v>0.4884209783686409</v>
+        <v>0.4885866608024535</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>4.4419231721722283E-3</v>
+        <v>3.9891318981817546E-3</v>
       </c>
       <c r="B42">
-        <v>1.9887955001307507</v>
+        <v>1.9886619183397949</v>
       </c>
       <c r="C42">
-        <v>1.9873841238827294</v>
+        <v>1.9876533032520141</v>
       </c>
       <c r="D42">
-        <v>1.9901399175228374</v>
+        <v>1.9908451353016177</v>
       </c>
       <c r="E42">
-        <v>0.48413591675535073</v>
+        <v>0.48428390890429407</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>3.9628562492267172E-3</v>
+        <v>3.5576797523223132E-3</v>
       </c>
       <c r="B43">
-        <v>1.9824506393416836</v>
+        <v>1.9823303226981601</v>
       </c>
       <c r="C43">
-        <v>1.9834208753583491</v>
+        <v>1.9836618023077848</v>
       </c>
       <c r="D43">
-        <v>1.9894478824865334</v>
+        <v>1.9900788021673066</v>
       </c>
       <c r="E43">
-        <v>0.47734806029275606</v>
+        <v>0.47747977505070704</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>3.6361818082347834E-3</v>
+        <v>3.2737186644082117E-3</v>
       </c>
       <c r="B44">
-        <v>1.9744919474011684</v>
+        <v>1.974384509972543</v>
       </c>
       <c r="C44">
-        <v>1.9763838185530207</v>
+        <v>1.9765983005094541</v>
       </c>
       <c r="D44">
-        <v>1.9881018483288506</v>
+        <v>1.9886663158697779</v>
       </c>
       <c r="E44">
-        <v>0.46811965905653585</v>
+        <v>0.46823739427087629</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>3.1857727462500304E-3</v>
+        <v>2.8613260560769026E-3</v>
       </c>
       <c r="B45">
-        <v>1.9606015980644798</v>
+        <v>1.9605032205647124</v>
       </c>
       <c r="C45">
-        <v>1.9679651991197609</v>
+        <v>1.9681577209913692</v>
       </c>
       <c r="D45">
-        <v>1.9856268258050573</v>
+        <v>1.9861316372923219</v>
       </c>
       <c r="E45">
-        <v>0.45307857556185949</v>
+        <v>0.45318211860679208</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>3.1232081817168856E-3</v>
+        <v>2.8331367179195003E-3</v>
       </c>
       <c r="B46">
-        <v>1.9446560762521701</v>
+        <v>1.9445694995580771</v>
       </c>
       <c r="C46">
-        <v>1.9517754516408949</v>
+        <v>1.9519444635968419</v>
       </c>
       <c r="D46">
-        <v>1.9819394583452974</v>
+        <v>1.9823910448962399</v>
       </c>
       <c r="E46">
-        <v>0.43373238413940346</v>
+        <v>0.43382535613530637</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>2.5014272975518552E-3</v>
+        <v>2.241428689335496E-3</v>
       </c>
       <c r="B47">
-        <v>1.9133637045491731</v>
+        <v>1.9132795095940298</v>
       </c>
       <c r="C47">
-        <v>1.9349573685078547</v>
+        <v>1.9351115139434512</v>
       </c>
       <c r="D47">
-        <v>1.9757676405036462</v>
+        <v>1.976171006719041</v>
       </c>
       <c r="E47">
-        <v>0.40030052964597368</v>
+        <v>0.40037856935678418</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>3.0967260786855305E-3</v>
+        <v>2.8649030629038594E-3</v>
       </c>
       <c r="B48">
-        <v>1.8825647103897789</v>
+        <v>1.8824959689008873</v>
       </c>
       <c r="C48">
-        <v>1.897274669020828</v>
+        <v>1.8974025574855045</v>
       </c>
       <c r="D48">
-        <v>1.967379376793398</v>
+        <v>1.9677402533154071</v>
       </c>
       <c r="E48">
-        <v>0.36077448618007762</v>
+        <v>0.36084714607413787</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>1.6312988562612444E-3</v>
+        <v>1.4223327513893924E-3</v>
       </c>
       <c r="B49">
-        <v>1.8097835322451896</v>
+        <v>1.8097010795526909</v>
       </c>
       <c r="C49">
-        <v>1.8662141961963352</v>
+        <v>1.8663405437848</v>
       </c>
       <c r="D49">
-        <v>1.9531957507840594</v>
+        <v>1.9535167276767629</v>
       </c>
       <c r="E49">
-        <v>0.28535322323071782</v>
+        <v>0.28540303313969961</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>4.2493945402071135E-3</v>
+        <v>4.0652740308750419E-3</v>
       </c>
       <c r="B50">
-        <v>1.7550312840286444</v>
+        <v>1.7549837902459493</v>
       </c>
       <c r="C50">
-        <v>1.7757607893693508</v>
+        <v>1.7758417722501996</v>
       </c>
       <c r="D50">
-        <v>1.9353609487760721</v>
+        <v>1.9356487633079895</v>
       </c>
       <c r="E50">
-        <v>0.20764028193379427</v>
+        <v>0.20769857954848889</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>-4.0928944295955382E-4</v>
+        <v>-5.7933119613447649E-4</v>
       </c>
       <c r="B51">
-        <v>1.5788304959608224</v>
+        <v>1.5787205495064089</v>
       </c>
       <c r="C51">
-        <v>1.7269836638987239</v>
+        <v>1.7271013074309058</v>
       </c>
       <c r="D51">
-        <v>1.9032732080226997</v>
+        <v>1.9035252240658473</v>
       </c>
       <c r="E51">
-        <v>3.3156471041159312E-2</v>
+        <v>3.3161788153726883E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
